--- a/tests/artifact/script/CreateCustomer.xlsx
+++ b/tests/artifact/script/CreateCustomer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="805">
   <si>
     <t>target</t>
   </si>
@@ -2311,8 +2311,8 @@
     <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|login)</t>
   </si>
   <si>
-    <t>username=${username}
-password=${password}</t>
+    <t>username=${login.username}
+password=${login.password}</t>
   </si>
   <si>
     <t>Create Customer</t>
@@ -2324,6 +2324,9 @@
     <t>${org.open}</t>
   </si>
   <si>
+    <t>${org.wait}</t>
+  </si>
+  <si>
     <t>click on Hamburger menu to open the menu</t>
   </si>
   <si>
@@ -2342,6 +2345,9 @@
     <t>${click.Contact}</t>
   </si>
   <si>
+    <t>${wait}</t>
+  </si>
+  <si>
     <t>click on add button in Contact page</t>
   </si>
   <si>
@@ -2375,7 +2381,7 @@
     <t>randomNo</t>
   </si>
   <si>
-    <t>GNUKhata_AccionLabs[NUMBER(${num})=&gt;randomDigits(1)]</t>
+    <t>GNUKhata_AccionLabs[NUMBER(${num})=&gt;randomDigits(5)]</t>
   </si>
   <si>
     <t xml:space="preserve">Then User can enter the new Customer name </t>
@@ -2393,7 +2399,7 @@
     <t>${cCustomer.Address}</t>
   </si>
   <si>
-    <t>J P Nagar 175 &amp; 176, 3rd Floor, Dollars Colony, JP Nagar 4th Phase, Bangalore</t>
+    <t>${address}</t>
   </si>
   <si>
     <t>Then search for a state in the name filed</t>
@@ -2402,7 +2408,7 @@
     <t>${cCustomer.selectState}</t>
   </si>
   <si>
-    <t>Karnataka</t>
+    <t>${state}</t>
   </si>
   <si>
     <t>select from the predection options</t>
@@ -2420,7 +2426,7 @@
     <t>${cCustomer.PinCode}</t>
   </si>
   <si>
-    <t>560078</t>
+    <t>${pincode}</t>
   </si>
   <si>
     <t>Then user can enter the PAN Number</t>
@@ -2429,7 +2435,7 @@
     <t>${cCustomer.PANNUmber}</t>
   </si>
   <si>
-    <t>AALCA1638B</t>
+    <t>${pannumber}</t>
   </si>
   <si>
     <t>Then User can see the GST Registration type</t>
@@ -2477,12 +2483,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2561,39 +2567,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2605,19 +2583,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2645,10 +2614,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2675,8 +2645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2684,7 +2655,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2698,6 +2669,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2726,7 +2732,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,7 +2774,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,37 +2894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,121 +2906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,30 +2956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2985,6 +2967,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3028,6 +3019,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3050,16 +3056,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3068,128 +3065,137 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3235,14 +3241,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3368,58 +3374,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6407,10 +6413,10 @@
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A37"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9395,12 +9401,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9410,7 +9416,7 @@
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="70.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="93.6666666666667" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="6" customWidth="1"/>
     <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="7" customWidth="1"/>
@@ -9550,8 +9556,8 @@
       <c r="E5" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="F5" s="29">
-        <v>1500</v>
+      <c r="F5" s="29" t="s">
+        <v>753</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -9566,7 +9572,7 @@
     <row r="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A6" s="25"/>
       <c r="B6" s="20" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>30</v>
@@ -9575,7 +9581,7 @@
         <v>363</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -9591,7 +9597,7 @@
     <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>30</v>
@@ -9600,7 +9606,7 @@
         <v>363</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -9616,7 +9622,7 @@
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="25"/>
       <c r="B8" s="20" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>30</v>
@@ -9625,7 +9631,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -9640,14 +9646,12 @@
     </row>
     <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="25"/>
-      <c r="B9" s="20" t="s">
-        <v>759</v>
-      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="27" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>363</v>
+        <v>540</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>760</v>
@@ -9663,35 +9667,35 @@
       <c r="N9" s="49"/>
       <c r="O9" s="40"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19" t="s">
+    <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>762</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>764</v>
       </c>
@@ -9699,12 +9703,12 @@
         <v>30</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -9729,7 +9733,7 @@
       <c r="E12" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
@@ -9742,22 +9746,20 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="G13"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="51"/>
@@ -9770,21 +9772,21 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>771</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>773</v>
-      </c>
-      <c r="G14" s="31"/>
+      <c r="G14"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="51"/>
@@ -9794,93 +9796,93 @@
       <c r="N14" s="23"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" customFormat="1" ht="22" customHeight="1" spans="2:6">
-      <c r="B15" s="20" t="s">
+    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" customFormat="1" ht="22" customHeight="1" spans="2:6">
+      <c r="B16" s="20" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>777</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>778</v>
       </c>
-      <c r="F16" s="29" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>780</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E17" s="31" t="s">
+      <c r="F17" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="40"/>
-    </row>
-    <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A18" s="25"/>
       <c r="B18" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>783</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="F18" s="31" t="s">
         <v>784</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>785</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -9895,7 +9897,7 @@
     <row r="19" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A19" s="25"/>
       <c r="B19" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>30</v>
@@ -9904,10 +9906,10 @@
         <v>706</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>787</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>788</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -9919,21 +9921,23 @@
       <c r="N19" s="49"/>
       <c r="O19" s="40"/>
     </row>
-    <row r="20" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A20" s="25"/>
       <c r="B20" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>253</v>
+        <v>706</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -9944,9 +9948,9 @@
       <c r="N20" s="49"/>
       <c r="O20" s="40"/>
     </row>
-    <row r="21" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="21" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A21" s="25"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="20" t="s">
         <v>791</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -9969,30 +9973,30 @@
       <c r="N21" s="49"/>
       <c r="O21" s="40"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
+    <row r="22" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>794</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="22"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
@@ -10044,8 +10048,8 @@
       <c r="N24" s="23"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="25"/>
+    <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
         <v>799</v>
       </c>
@@ -10053,39 +10057,39 @@
         <v>30</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E25" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="F25" s="37">
-        <v>5000</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="40"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="25"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>363</v>
+      <c r="D26" s="31" t="s">
+        <v>576</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="37" t="s">
+        <v>753</v>
+      </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -10098,10 +10102,18 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="25"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>804</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -11201,6 +11213,23 @@
       <c r="N91" s="49"/>
       <c r="O91" s="40"/>
     </row>
+    <row r="92" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="25"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="40"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -11209,26 +11238,26 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="N15">
     <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="N17">
     <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -11242,7 +11271,7 @@
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N9">
+  <conditionalFormatting sqref="N5:N10">
     <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -11253,62 +11282,62 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N11">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
+  <conditionalFormatting sqref="N13:N14">
     <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N21">
+  <conditionalFormatting sqref="N18:N22">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N24">
+  <conditionalFormatting sqref="N23:N25">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N91">
+  <conditionalFormatting sqref="N28:N92">
     <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N25:N26">
+  <conditionalFormatting sqref="N1 N26:N27">
     <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -11320,10 +11349,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27:C91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28:C92">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27:D91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28:D92">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
